--- a/Reviews.xlsx
+++ b/Reviews.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GrandProf\Downloads\Repos_4cleanup\Repositories_AP7\Active\YWebScrape\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GrandProf\Downloads\Repos_4cleanup\Repositories_AP7\Active\YWebWorm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6241A148-78F3-4E48-98AC-37BD1DFD2DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A613F3-2513-4DAB-83DB-462EBAFA7FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,12 +201,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,14 +520,15 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.53125" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.53125" customWidth="1"/>
     <col min="3" max="3" width="34.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
@@ -539,296 +546,296 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44846</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45172</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45166</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45073</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45155</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>42929</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45152</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45101</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45118</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45034</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45124</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45156</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45156</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45102</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45148</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45141</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45220</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>44906</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45068</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45059</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45024</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>5</v>
       </c>
     </row>
